--- a/attachments/Шины зима 18-19 rev.xlsx
+++ b/attachments/Шины зима 18-19 rev.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="278">
   <si>
     <t xml:space="preserve">Парт номер JLR </t>
   </si>
@@ -663,27 +663,18 @@
     <t>295/40 R21 (rear)</t>
   </si>
   <si>
-    <t>02MIC839711</t>
-  </si>
-  <si>
     <t xml:space="preserve">245/50 R20 </t>
   </si>
   <si>
     <t>839711</t>
   </si>
   <si>
-    <t>02MIC594626</t>
-  </si>
-  <si>
     <t>255/45 R20</t>
   </si>
   <si>
     <t>594626</t>
   </si>
   <si>
-    <t>02NOKTS31964</t>
-  </si>
-  <si>
     <t>245/50 R20</t>
   </si>
   <si>
@@ -762,106 +753,106 @@
     <t>28LRCON344850</t>
   </si>
   <si>
+    <t xml:space="preserve"> Больше 60</t>
+  </si>
+  <si>
+    <t>LATITUDE X-ICE NORTH 2+ GX MI</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>03448300000</t>
+  </si>
+  <si>
+    <t>03446160000</t>
+  </si>
+  <si>
+    <t>03448210000</t>
+  </si>
+  <si>
+    <t>03446200000</t>
+  </si>
+  <si>
+    <t>03542510000</t>
+  </si>
+  <si>
+    <t>03448500000</t>
+  </si>
+  <si>
+    <t>659213</t>
+  </si>
+  <si>
+    <t>287490</t>
+  </si>
+  <si>
+    <t>541491</t>
+  </si>
+  <si>
+    <t>936568</t>
+  </si>
+  <si>
+    <t>891906</t>
+  </si>
+  <si>
+    <t>704273</t>
+  </si>
+  <si>
+    <t>671750</t>
+  </si>
+  <si>
+    <t>493160</t>
+  </si>
+  <si>
+    <t>696177</t>
+  </si>
+  <si>
+    <t>142790</t>
+  </si>
+  <si>
+    <t>654386</t>
+  </si>
+  <si>
+    <t>289179</t>
+  </si>
+  <si>
+    <t>225881</t>
+  </si>
+  <si>
+    <t>195590</t>
+  </si>
+  <si>
+    <t>517335</t>
+  </si>
+  <si>
+    <t>828765</t>
+  </si>
+  <si>
+    <t>067642</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>02RUNOKTS31964</t>
+  </si>
+  <si>
+    <t>02RUMIC839711</t>
+  </si>
+  <si>
+    <t>02RUMIC594626</t>
+  </si>
+  <si>
     <t>&gt;100</t>
   </si>
   <si>
-    <t xml:space="preserve"> Больше 60</t>
-  </si>
-  <si>
-    <t>LATITUDE X-ICE NORTH 2+ GX MI</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>03448300000</t>
-  </si>
-  <si>
-    <t>03446160000</t>
-  </si>
-  <si>
-    <t>03448210000</t>
-  </si>
-  <si>
-    <t>03446200000</t>
-  </si>
-  <si>
-    <t>03542510000</t>
-  </si>
-  <si>
-    <t>03448500000</t>
-  </si>
-  <si>
-    <t>659213</t>
-  </si>
-  <si>
-    <t>287490</t>
-  </si>
-  <si>
-    <t>541491</t>
-  </si>
-  <si>
-    <t>936568</t>
-  </si>
-  <si>
-    <t>891906</t>
-  </si>
-  <si>
-    <t>704273</t>
-  </si>
-  <si>
-    <t>671750</t>
-  </si>
-  <si>
-    <t>493160</t>
-  </si>
-  <si>
-    <t>696177</t>
-  </si>
-  <si>
-    <t>142790</t>
-  </si>
-  <si>
-    <t>654386</t>
-  </si>
-  <si>
-    <t>289179</t>
-  </si>
-  <si>
-    <t>225881</t>
-  </si>
-  <si>
-    <t>195590</t>
-  </si>
-  <si>
-    <t>517335</t>
-  </si>
-  <si>
-    <t>828765</t>
-  </si>
-  <si>
-    <t>067642</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>38</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>53</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1343,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71:G81"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1477,7 +1468,7 @@
         <v>25635</v>
       </c>
       <c r="G5" s="5">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1523,7 +1514,7 @@
         <v>25640</v>
       </c>
       <c r="G7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1569,7 +1560,7 @@
         <v>26819</v>
       </c>
       <c r="G9" s="5">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1661,7 +1652,7 @@
         <v>18777</v>
       </c>
       <c r="G13" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1684,7 +1675,7 @@
         <v>25232</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1798,19 +1789,19 @@
       <c r="F19" s="29">
         <v>25500</v>
       </c>
-      <c r="G19" s="5">
-        <v>57</v>
+      <c r="G19" s="5" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>33</v>
@@ -1822,18 +1813,18 @@
         <v>20499</v>
       </c>
       <c r="G20" s="5">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>33</v>
@@ -1845,7 +1836,7 @@
         <v>21555</v>
       </c>
       <c r="G21" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1868,7 +1859,7 @@
         <v>23586</v>
       </c>
       <c r="G22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1891,7 +1882,7 @@
         <v>25232</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1965,13 +1956,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>38</v>
@@ -1983,21 +1974,21 @@
         <v>23069</v>
       </c>
       <c r="G27" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>11</v>
@@ -2011,13 +2002,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>38</v>
@@ -2034,13 +2025,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>38</v>
@@ -2052,7 +2043,7 @@
         <v>25234</v>
       </c>
       <c r="G30" s="5">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2144,7 +2135,7 @@
         <v>69</v>
       </c>
       <c r="G34" s="5">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2259,7 +2250,7 @@
         <v>82</v>
       </c>
       <c r="G39" s="5">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2282,7 +2273,7 @@
         <v>85</v>
       </c>
       <c r="G40" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2351,7 +2342,7 @@
         <v>95</v>
       </c>
       <c r="G43" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2374,7 +2365,7 @@
         <v>99</v>
       </c>
       <c r="G44" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2397,7 +2388,7 @@
         <v>101</v>
       </c>
       <c r="G45" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2420,7 +2411,7 @@
         <v>182</v>
       </c>
       <c r="G46" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2466,7 +2457,7 @@
         <v>199</v>
       </c>
       <c r="G48" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2512,18 +2503,18 @@
         <v>209</v>
       </c>
       <c r="G50" s="5">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>71</v>
@@ -2532,10 +2523,10 @@
         <v>11</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G51" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2578,10 +2569,10 @@
         <v>11</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -2601,10 +2592,10 @@
         <v>11</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2624,10 +2615,10 @@
         <v>11</v>
       </c>
       <c r="F55" s="30" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -2647,21 +2638,21 @@
         <v>11</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="G56" s="5">
-        <v>0</v>
+        <v>255</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>125</v>
@@ -2670,21 +2661,21 @@
         <v>11</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>51</v>
@@ -2693,10 +2684,10 @@
         <v>11</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -2716,7 +2707,7 @@
         <v>11</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G59" s="5">
         <v>0</v>
@@ -2724,7 +2715,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>46</v>
@@ -2739,10 +2730,10 @@
         <v>11</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2762,10 +2753,10 @@
         <v>11</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2785,7 +2776,7 @@
         <v>11</v>
       </c>
       <c r="F62" s="30" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>276</v>
@@ -2808,10 +2799,10 @@
         <v>11</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2831,10 +2822,10 @@
         <v>11</v>
       </c>
       <c r="F64" s="30" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2854,10 +2845,10 @@
         <v>11</v>
       </c>
       <c r="F65" s="30" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2877,10 +2868,10 @@
         <v>11</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -2900,10 +2891,10 @@
         <v>11</v>
       </c>
       <c r="F67" s="30" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -2923,21 +2914,21 @@
         <v>11</v>
       </c>
       <c r="F68" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="G68" s="5">
-        <v>0</v>
+        <v>255</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>51</v>
@@ -2946,33 +2937,33 @@
         <v>11</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D70" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="G70" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -3015,7 +3006,7 @@
         <v>11</v>
       </c>
       <c r="F72" s="26" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G72" s="5">
         <v>0</v>
@@ -3038,7 +3029,7 @@
         <v>11</v>
       </c>
       <c r="F73" s="27" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G73" s="5">
         <v>0</v>
@@ -3061,7 +3052,7 @@
         <v>11</v>
       </c>
       <c r="F74" s="27" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G74" s="5">
         <v>5</v>
@@ -3084,7 +3075,7 @@
         <v>11</v>
       </c>
       <c r="F75" s="27" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G75" s="5">
         <v>0</v>
@@ -3110,7 +3101,7 @@
         <v>140</v>
       </c>
       <c r="G76" s="5">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -3184,13 +3175,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>126</v>
@@ -3199,7 +3190,7 @@
         <v>11</v>
       </c>
       <c r="F80" s="27" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G80" s="5">
         <v>1</v>
@@ -3207,13 +3198,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B81" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>193</v>
@@ -3222,7 +3213,7 @@
         <v>11</v>
       </c>
       <c r="F81" s="27" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G81" s="5">
         <v>0</v>
@@ -3239,7 +3230,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3317,8 +3308,8 @@
       <c r="F3" s="4">
         <v>25067</v>
       </c>
-      <c r="G3" s="5">
-        <v>0</v>
+      <c r="G3" s="5" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -3341,7 +3332,7 @@
         <v>24155</v>
       </c>
       <c r="G4" s="5">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -3387,7 +3378,7 @@
         <v>23586</v>
       </c>
       <c r="G6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -3410,7 +3401,7 @@
         <v>25232</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -3484,13 +3475,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>38</v>
@@ -3502,21 +3493,21 @@
         <v>23069</v>
       </c>
       <c r="G11" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>11</v>
@@ -3530,13 +3521,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>38</v>
@@ -3553,13 +3544,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>38</v>
@@ -3571,7 +3562,7 @@
         <v>25234</v>
       </c>
       <c r="G14" s="5">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -3594,7 +3585,7 @@
         <v>153</v>
       </c>
       <c r="G15" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -3617,7 +3608,7 @@
         <v>155</v>
       </c>
       <c r="G16" s="10">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -3709,7 +3700,7 @@
         <v>82</v>
       </c>
       <c r="G20" s="10">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -3732,7 +3723,7 @@
         <v>85</v>
       </c>
       <c r="G21" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -3824,7 +3815,7 @@
         <v>165</v>
       </c>
       <c r="G25" s="10">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -3847,7 +3838,7 @@
         <v>169</v>
       </c>
       <c r="G26" s="10">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -3890,7 +3881,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G28" s="9">
         <v>0</v>
@@ -3898,7 +3889,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>46</v>
@@ -3913,10 +3904,10 @@
         <v>11</v>
       </c>
       <c r="F29" s="31" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -3936,10 +3927,10 @@
         <v>11</v>
       </c>
       <c r="F30" s="31" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -3959,10 +3950,10 @@
         <v>11</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>250</v>
+        <v>265</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -3982,10 +3973,10 @@
         <v>11</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>279</v>
+        <v>266</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -4005,10 +3996,10 @@
         <v>11</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -4028,10 +4019,10 @@
         <v>11</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -4051,7 +4042,7 @@
         <v>11</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>276</v>
@@ -4074,10 +4065,10 @@
         <v>11</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -4097,10 +4088,10 @@
         <v>11</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -4120,10 +4111,10 @@
         <v>11</v>
       </c>
       <c r="F38" s="31" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -4143,10 +4134,10 @@
         <v>11</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -4166,10 +4157,10 @@
         <v>11</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -4189,10 +4180,10 @@
         <v>11</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="G41" s="9">
-        <v>0</v>
+        <v>255</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -4206,27 +4197,27 @@
         <v>179</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>51</v>
@@ -4235,33 +4226,33 @@
         <v>11</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D44" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G44" s="9" t="s">
         <v>244</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -4399,7 +4390,7 @@
         <v>140</v>
       </c>
       <c r="G50" s="10">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -4496,13 +4487,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>126</v>
@@ -4511,7 +4502,7 @@
         <v>11</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G55" s="10">
         <v>1</v>
@@ -4519,13 +4510,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>193</v>
@@ -4534,7 +4525,7 @@
         <v>11</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G56" s="10">
         <v>0</v>

--- a/attachments/Шины зима 18-19 rev.xlsx
+++ b/attachments/Шины зима 18-19 rev.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="281">
   <si>
     <t xml:space="preserve">Парт номер JLR </t>
   </si>
@@ -759,100 +759,109 @@
     <t>LATITUDE X-ICE NORTH 2+ GX MI</t>
   </si>
   <si>
+    <t>03448300000</t>
+  </si>
+  <si>
+    <t>03446160000</t>
+  </si>
+  <si>
+    <t>03448210000</t>
+  </si>
+  <si>
+    <t>03446200000</t>
+  </si>
+  <si>
+    <t>03542510000</t>
+  </si>
+  <si>
+    <t>03448500000</t>
+  </si>
+  <si>
+    <t>659213</t>
+  </si>
+  <si>
+    <t>287490</t>
+  </si>
+  <si>
+    <t>541491</t>
+  </si>
+  <si>
+    <t>936568</t>
+  </si>
+  <si>
+    <t>891906</t>
+  </si>
+  <si>
+    <t>704273</t>
+  </si>
+  <si>
+    <t>671750</t>
+  </si>
+  <si>
+    <t>493160</t>
+  </si>
+  <si>
+    <t>696177</t>
+  </si>
+  <si>
+    <t>142790</t>
+  </si>
+  <si>
+    <t>654386</t>
+  </si>
+  <si>
+    <t>289179</t>
+  </si>
+  <si>
+    <t>225881</t>
+  </si>
+  <si>
+    <t>195590</t>
+  </si>
+  <si>
+    <t>517335</t>
+  </si>
+  <si>
+    <t>828765</t>
+  </si>
+  <si>
+    <t>067642</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>02RUNOKTS31964</t>
+  </si>
+  <si>
+    <t>02RUMIC839711</t>
+  </si>
+  <si>
+    <t>02RUMIC594626</t>
+  </si>
+  <si>
+    <t>&gt;100</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
-    <t>03448300000</t>
-  </si>
-  <si>
-    <t>03446160000</t>
-  </si>
-  <si>
-    <t>03448210000</t>
-  </si>
-  <si>
-    <t>03446200000</t>
-  </si>
-  <si>
-    <t>03542510000</t>
-  </si>
-  <si>
-    <t>03448500000</t>
-  </si>
-  <si>
-    <t>659213</t>
-  </si>
-  <si>
-    <t>287490</t>
-  </si>
-  <si>
-    <t>541491</t>
-  </si>
-  <si>
-    <t>936568</t>
-  </si>
-  <si>
-    <t>891906</t>
-  </si>
-  <si>
-    <t>704273</t>
-  </si>
-  <si>
-    <t>671750</t>
-  </si>
-  <si>
-    <t>493160</t>
-  </si>
-  <si>
-    <t>696177</t>
-  </si>
-  <si>
-    <t>142790</t>
-  </si>
-  <si>
-    <t>654386</t>
-  </si>
-  <si>
-    <t>289179</t>
-  </si>
-  <si>
-    <t>225881</t>
-  </si>
-  <si>
-    <t>195590</t>
-  </si>
-  <si>
-    <t>517335</t>
-  </si>
-  <si>
-    <t>828765</t>
-  </si>
-  <si>
-    <t>067642</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>02RUNOKTS31964</t>
-  </si>
-  <si>
-    <t>02RUMIC839711</t>
-  </si>
-  <si>
-    <t>02RUMIC594626</t>
-  </si>
-  <si>
-    <t>&gt;100</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>53</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>38</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1352,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1491,7 +1500,7 @@
         <v>25636</v>
       </c>
       <c r="G6" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1514,7 +1523,7 @@
         <v>25640</v>
       </c>
       <c r="G7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1675,7 +1684,7 @@
         <v>25232</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1721,7 +1730,7 @@
         <v>22730</v>
       </c>
       <c r="G16" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1790,7 +1799,7 @@
         <v>25500</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1813,7 +1822,7 @@
         <v>20499</v>
       </c>
       <c r="G20" s="5">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1882,7 +1891,7 @@
         <v>25232</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -2020,7 +2029,7 @@
         <v>22730</v>
       </c>
       <c r="G29" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -2043,7 +2052,7 @@
         <v>25234</v>
       </c>
       <c r="G30" s="5">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2089,7 +2098,7 @@
         <v>65</v>
       </c>
       <c r="G32" s="5">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2112,7 +2121,7 @@
         <v>67</v>
       </c>
       <c r="G33" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2135,7 +2144,7 @@
         <v>69</v>
       </c>
       <c r="G34" s="5">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2204,7 +2213,7 @@
         <v>77</v>
       </c>
       <c r="G37" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2227,7 +2236,7 @@
         <v>80</v>
       </c>
       <c r="G38" s="5">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2250,7 +2259,7 @@
         <v>82</v>
       </c>
       <c r="G39" s="5">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2319,7 +2328,7 @@
         <v>92</v>
       </c>
       <c r="G42" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2342,7 +2351,7 @@
         <v>95</v>
       </c>
       <c r="G43" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2388,7 +2397,7 @@
         <v>101</v>
       </c>
       <c r="G45" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2411,7 +2420,7 @@
         <v>182</v>
       </c>
       <c r="G46" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2457,7 +2466,7 @@
         <v>199</v>
       </c>
       <c r="G48" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2503,12 +2512,12 @@
         <v>209</v>
       </c>
       <c r="G50" s="5">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>60</v>
@@ -2526,7 +2535,7 @@
         <v>219</v>
       </c>
       <c r="G51" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2569,7 +2578,7 @@
         <v>11</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>244</v>
@@ -2592,7 +2601,7 @@
         <v>11</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>244</v>
@@ -2638,15 +2647,15 @@
         <v>11</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>46</v>
@@ -2664,12 +2673,12 @@
         <v>215</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>46</v>
@@ -2707,7 +2716,7 @@
         <v>11</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G59" s="5">
         <v>0</v>
@@ -2730,10 +2739,10 @@
         <v>11</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2753,10 +2762,10 @@
         <v>11</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2776,10 +2785,10 @@
         <v>11</v>
       </c>
       <c r="F62" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2799,7 +2808,7 @@
         <v>11</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>244</v>
@@ -2822,7 +2831,7 @@
         <v>11</v>
       </c>
       <c r="F64" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>244</v>
@@ -2845,7 +2854,7 @@
         <v>11</v>
       </c>
       <c r="F65" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>244</v>
@@ -2868,7 +2877,7 @@
         <v>11</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>276</v>
@@ -2891,7 +2900,7 @@
         <v>11</v>
       </c>
       <c r="F67" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>244</v>
@@ -2914,10 +2923,10 @@
         <v>11</v>
       </c>
       <c r="F68" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -3006,7 +3015,7 @@
         <v>11</v>
       </c>
       <c r="F72" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G72" s="5">
         <v>0</v>
@@ -3029,7 +3038,7 @@
         <v>11</v>
       </c>
       <c r="F73" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G73" s="5">
         <v>0</v>
@@ -3052,7 +3061,7 @@
         <v>11</v>
       </c>
       <c r="F74" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G74" s="5">
         <v>5</v>
@@ -3075,7 +3084,7 @@
         <v>11</v>
       </c>
       <c r="F75" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G75" s="5">
         <v>0</v>
@@ -3101,7 +3110,7 @@
         <v>140</v>
       </c>
       <c r="G76" s="5">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -3190,7 +3199,7 @@
         <v>11</v>
       </c>
       <c r="F80" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G80" s="5">
         <v>1</v>
@@ -3213,7 +3222,7 @@
         <v>11</v>
       </c>
       <c r="F81" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G81" s="5">
         <v>0</v>
@@ -3230,7 +3239,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G2" sqref="G2:G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3308,8 +3317,8 @@
       <c r="F3" s="4">
         <v>25067</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>275</v>
+      <c r="G3" s="5">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -3332,7 +3341,7 @@
         <v>24155</v>
       </c>
       <c r="G4" s="5">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -3401,7 +3410,7 @@
         <v>25232</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -3539,7 +3548,7 @@
         <v>22730</v>
       </c>
       <c r="G13" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -3562,7 +3571,7 @@
         <v>25234</v>
       </c>
       <c r="G14" s="5">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -3608,7 +3617,7 @@
         <v>155</v>
       </c>
       <c r="G16" s="10">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -3654,7 +3663,7 @@
         <v>77</v>
       </c>
       <c r="G18" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -3677,7 +3686,7 @@
         <v>80</v>
       </c>
       <c r="G19" s="10">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -3700,7 +3709,7 @@
         <v>82</v>
       </c>
       <c r="G20" s="10">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -3815,7 +3824,7 @@
         <v>165</v>
       </c>
       <c r="G25" s="10">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -3861,7 +3870,7 @@
         <v>172</v>
       </c>
       <c r="G27" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -3881,7 +3890,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G28" s="9">
         <v>0</v>
@@ -3904,10 +3913,10 @@
         <v>11</v>
       </c>
       <c r="F29" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -3927,10 +3936,10 @@
         <v>11</v>
       </c>
       <c r="F30" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -3950,10 +3959,10 @@
         <v>11</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="G31" s="9">
-        <v>0</v>
+        <v>264</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -3973,10 +3982,10 @@
         <v>11</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="G32" s="9">
-        <v>0</v>
+        <v>265</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -3996,10 +4005,10 @@
         <v>11</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -4019,7 +4028,7 @@
         <v>11</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>244</v>
@@ -4042,10 +4051,10 @@
         <v>11</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -4065,7 +4074,7 @@
         <v>11</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>244</v>
@@ -4088,7 +4097,7 @@
         <v>11</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>244</v>
@@ -4111,7 +4120,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>244</v>
@@ -4134,7 +4143,7 @@
         <v>11</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>276</v>
@@ -4157,7 +4166,7 @@
         <v>11</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>244</v>
@@ -4180,10 +4189,10 @@
         <v>11</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -4203,7 +4212,7 @@
         <v>11</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>244</v>
@@ -4390,7 +4399,7 @@
         <v>140</v>
       </c>
       <c r="G50" s="10">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -4502,7 +4511,7 @@
         <v>11</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G55" s="10">
         <v>1</v>
@@ -4525,7 +4534,7 @@
         <v>11</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G56" s="10">
         <v>0</v>

--- a/attachments/Шины зима 18-19 rev.xlsx
+++ b/attachments/Шины зима 18-19 rev.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="278">
   <si>
     <t xml:space="preserve">Парт номер JLR </t>
   </si>
@@ -846,22 +846,13 @@
     <t>&gt;100</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>38</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1343,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1569,7 +1560,7 @@
         <v>26819</v>
       </c>
       <c r="G9" s="5">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1822,7 +1813,7 @@
         <v>20499</v>
       </c>
       <c r="G20" s="5">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1868,7 +1859,7 @@
         <v>23586</v>
       </c>
       <c r="G22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -2098,7 +2089,7 @@
         <v>65</v>
       </c>
       <c r="G32" s="5">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2121,7 +2112,7 @@
         <v>67</v>
       </c>
       <c r="G33" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2259,7 +2250,7 @@
         <v>82</v>
       </c>
       <c r="G39" s="5">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2282,7 +2273,7 @@
         <v>85</v>
       </c>
       <c r="G40" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2351,7 +2342,7 @@
         <v>95</v>
       </c>
       <c r="G43" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2374,7 +2365,7 @@
         <v>99</v>
       </c>
       <c r="G44" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2420,7 +2411,7 @@
         <v>182</v>
       </c>
       <c r="G46" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2466,7 +2457,7 @@
         <v>199</v>
       </c>
       <c r="G48" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2650,7 +2641,7 @@
         <v>254</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2673,7 +2664,7 @@
         <v>215</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -2788,7 +2779,7 @@
         <v>258</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2926,7 +2917,7 @@
         <v>254</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -3064,7 +3055,7 @@
         <v>248</v>
       </c>
       <c r="G74" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -3239,7 +3230,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G56"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3387,7 +3378,7 @@
         <v>23586</v>
       </c>
       <c r="G6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -3617,7 +3608,7 @@
         <v>155</v>
       </c>
       <c r="G16" s="10">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -3709,7 +3700,7 @@
         <v>82</v>
       </c>
       <c r="G20" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -3732,7 +3723,7 @@
         <v>85</v>
       </c>
       <c r="G21" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -3824,7 +3815,7 @@
         <v>165</v>
       </c>
       <c r="G25" s="10">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -3870,7 +3861,7 @@
         <v>172</v>
       </c>
       <c r="G27" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -3962,7 +3953,7 @@
         <v>264</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -4008,7 +3999,7 @@
         <v>266</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -4054,7 +4045,7 @@
         <v>258</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -4192,7 +4183,7 @@
         <v>254</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -4307,7 +4298,7 @@
         <v>130</v>
       </c>
       <c r="G46" s="10">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
